--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32218766666667</v>
+        <v>9.453524666666667</v>
       </c>
       <c r="H2">
-        <v>30.966563</v>
+        <v>28.360574</v>
       </c>
       <c r="I2">
-        <v>0.06849540241430999</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="J2">
-        <v>0.06849540241431</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.865525</v>
+        <v>24.67973233333333</v>
       </c>
       <c r="N2">
-        <v>68.596575</v>
+        <v>74.039197</v>
       </c>
       <c r="O2">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="P2">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="Q2">
-        <v>236.0222401468583</v>
+        <v>233.3104583798976</v>
       </c>
       <c r="R2">
-        <v>2124.200161321725</v>
+        <v>2099.794125419078</v>
       </c>
       <c r="S2">
-        <v>0.002234092546264421</v>
+        <v>0.002929080267973628</v>
       </c>
       <c r="T2">
-        <v>0.002234092546264421</v>
+        <v>0.002929080267973628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32218766666667</v>
+        <v>9.453524666666667</v>
       </c>
       <c r="H3">
-        <v>30.966563</v>
+        <v>28.360574</v>
       </c>
       <c r="I3">
-        <v>0.06849540241430999</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="J3">
-        <v>0.06849540241431</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>681.385726</v>
       </c>
       <c r="O3">
-        <v>0.3239890537962366</v>
+        <v>0.3683082836869239</v>
       </c>
       <c r="P3">
-        <v>0.3239890537962366</v>
+        <v>0.368308283686924</v>
       </c>
       <c r="Q3">
-        <v>2344.463779053304</v>
+        <v>2147.165589418525</v>
       </c>
       <c r="R3">
-        <v>21100.17401147974</v>
+        <v>19324.49030476672</v>
       </c>
       <c r="S3">
-        <v>0.02219176061760475</v>
+        <v>0.02695644423190442</v>
       </c>
       <c r="T3">
-        <v>0.02219176061760476</v>
+        <v>0.02695644423190442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32218766666667</v>
+        <v>9.453524666666667</v>
       </c>
       <c r="H4">
-        <v>30.966563</v>
+        <v>28.360574</v>
       </c>
       <c r="I4">
-        <v>0.06849540241430999</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="J4">
-        <v>0.06849540241431</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>207.8383993333333</v>
+        <v>113.3958433333333</v>
       </c>
       <c r="N4">
-        <v>623.5151980000001</v>
+        <v>340.18753</v>
       </c>
       <c r="O4">
-        <v>0.296472455056379</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="P4">
-        <v>0.2964724550563789</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="Q4">
-        <v>2145.346962258275</v>
+        <v>1071.990402049136</v>
       </c>
       <c r="R4">
-        <v>19308.12266032448</v>
+        <v>9647.913618442219</v>
       </c>
       <c r="S4">
-        <v>0.02030700011384511</v>
+        <v>0.01345823053069696</v>
       </c>
       <c r="T4">
-        <v>0.02030700011384511</v>
+        <v>0.01345823053069696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.32218766666667</v>
+        <v>9.453524666666667</v>
       </c>
       <c r="H5">
-        <v>30.966563</v>
+        <v>28.360574</v>
       </c>
       <c r="I5">
-        <v>0.06849540241430999</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="J5">
-        <v>0.06849540241431</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.73455433333334</v>
+        <v>95.29374566666667</v>
       </c>
       <c r="N5">
-        <v>293.203663</v>
+        <v>285.881237</v>
       </c>
       <c r="O5">
-        <v>0.139414099415638</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="P5">
-        <v>0.1394140994156379</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="Q5">
-        <v>1008.834411346697</v>
+        <v>900.8617752388931</v>
       </c>
       <c r="R5">
-        <v>9079.509702120269</v>
+        <v>8107.755977150038</v>
       </c>
       <c r="S5">
-        <v>0.009549224841702741</v>
+        <v>0.01130980783436363</v>
       </c>
       <c r="T5">
-        <v>0.009549224841702741</v>
+        <v>0.01130980783436363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.32218766666667</v>
+        <v>9.453524666666667</v>
       </c>
       <c r="H6">
-        <v>30.966563</v>
+        <v>28.360574</v>
       </c>
       <c r="I6">
-        <v>0.06849540241430999</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="J6">
-        <v>0.06849540241431</v>
+        <v>0.07318989397159045</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.4707516666666</v>
+        <v>156.1827086666667</v>
       </c>
       <c r="N6">
-        <v>436.412255</v>
+        <v>468.548126</v>
       </c>
       <c r="O6">
-        <v>0.2075077128377238</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="P6">
-        <v>0.2075077128377237</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="Q6">
-        <v>1501.576398714396</v>
+        <v>1476.477088887147</v>
       </c>
       <c r="R6">
-        <v>13514.18758842956</v>
+        <v>13288.29379998433</v>
       </c>
       <c r="S6">
-        <v>0.01421332429489297</v>
+        <v>0.01853633110665181</v>
       </c>
       <c r="T6">
-        <v>0.01421332429489297</v>
+        <v>0.01853633110665181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>286.361062</v>
       </c>
       <c r="I7">
-        <v>0.6334063027104161</v>
+        <v>0.7390095759476533</v>
       </c>
       <c r="J7">
-        <v>0.6334063027104162</v>
+        <v>0.7390095759476532</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.865525</v>
+        <v>24.67973233333333</v>
       </c>
       <c r="N7">
-        <v>68.596575</v>
+        <v>74.039197</v>
       </c>
       <c r="O7">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="P7">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="Q7">
-        <v>2182.598674062517</v>
+        <v>2355.771453616357</v>
       </c>
       <c r="R7">
-        <v>19643.38806656265</v>
+        <v>21201.94308254722</v>
       </c>
       <c r="S7">
-        <v>0.02065960998495582</v>
+        <v>0.02957537235389428</v>
       </c>
       <c r="T7">
-        <v>0.02065960998495583</v>
+        <v>0.02957537235389427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>286.361062</v>
       </c>
       <c r="I8">
-        <v>0.6334063027104161</v>
+        <v>0.7390095759476533</v>
       </c>
       <c r="J8">
-        <v>0.6334063027104162</v>
+        <v>0.7390095759476532</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>681.385726</v>
       </c>
       <c r="O8">
-        <v>0.3239890537962366</v>
+        <v>0.3683082836869239</v>
       </c>
       <c r="P8">
-        <v>0.3239890537962366</v>
+        <v>0.368308283686924</v>
       </c>
       <c r="Q8">
         <v>21680.26001433345</v>
@@ -948,10 +948,10 @@
         <v>195122.340129001</v>
       </c>
       <c r="S8">
-        <v>0.2052167086837203</v>
+        <v>0.2721833485454817</v>
       </c>
       <c r="T8">
-        <v>0.2052167086837204</v>
+        <v>0.2721833485454817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>286.361062</v>
       </c>
       <c r="I9">
-        <v>0.6334063027104161</v>
+        <v>0.7390095759476533</v>
       </c>
       <c r="J9">
-        <v>0.6334063027104162</v>
+        <v>0.7390095759476532</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>207.8383993333333</v>
+        <v>113.3958433333333</v>
       </c>
       <c r="N9">
-        <v>623.5151980000001</v>
+        <v>340.18753</v>
       </c>
       <c r="O9">
-        <v>0.296472455056379</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="P9">
-        <v>0.2964724550563789</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="Q9">
-        <v>19838.94158582448</v>
+        <v>10824.05137443965</v>
       </c>
       <c r="R9">
-        <v>178550.4742724203</v>
+        <v>97416.46236995686</v>
       </c>
       <c r="S9">
-        <v>0.187787521612741</v>
+        <v>0.135889816172663</v>
       </c>
       <c r="T9">
-        <v>0.187787521612741</v>
+        <v>0.1358898161726629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>286.361062</v>
       </c>
       <c r="I10">
-        <v>0.6334063027104161</v>
+        <v>0.7390095759476533</v>
       </c>
       <c r="J10">
-        <v>0.6334063027104162</v>
+        <v>0.7390095759476532</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.73455433333334</v>
+        <v>95.29374566666667</v>
       </c>
       <c r="N10">
-        <v>293.203663</v>
+        <v>285.881237</v>
       </c>
       <c r="O10">
-        <v>0.139414099415638</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="P10">
-        <v>0.1394140994156379</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="Q10">
-        <v>9329.123590996678</v>
+        <v>9096.139403688188</v>
       </c>
       <c r="R10">
-        <v>83962.1123189701</v>
+        <v>81865.25463319369</v>
       </c>
       <c r="S10">
-        <v>0.08830576925656161</v>
+        <v>0.1141968629571563</v>
       </c>
       <c r="T10">
-        <v>0.08830576925656161</v>
+        <v>0.1141968629571563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>286.361062</v>
       </c>
       <c r="I11">
-        <v>0.6334063027104161</v>
+        <v>0.7390095759476533</v>
       </c>
       <c r="J11">
-        <v>0.6334063027104162</v>
+        <v>0.7390095759476532</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.4707516666666</v>
+        <v>156.1827086666667</v>
       </c>
       <c r="N11">
-        <v>436.412255</v>
+        <v>468.548126</v>
       </c>
       <c r="O11">
-        <v>0.2075077128377238</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="P11">
-        <v>0.2075077128377237</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="Q11">
-        <v>13885.71964573498</v>
+        <v>14908.21543994109</v>
       </c>
       <c r="R11">
-        <v>124971.4768116148</v>
+        <v>134173.9389594698</v>
       </c>
       <c r="S11">
-        <v>0.1314366931724374</v>
+        <v>0.187164175918458</v>
       </c>
       <c r="T11">
-        <v>0.1314366931724374</v>
+        <v>0.187164175918458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>12.69470766666667</v>
+        <v>0.5482786666666667</v>
       </c>
       <c r="H12">
-        <v>38.084123</v>
+        <v>1.644836</v>
       </c>
       <c r="I12">
-        <v>0.08423883950185489</v>
+        <v>0.004244814383540156</v>
       </c>
       <c r="J12">
-        <v>0.08423883950185491</v>
+        <v>0.004244814383540155</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.865525</v>
+        <v>24.67973233333333</v>
       </c>
       <c r="N12">
-        <v>68.596575</v>
+        <v>74.039197</v>
       </c>
       <c r="O12">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="P12">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="Q12">
-        <v>290.2711555198583</v>
+        <v>13.53137073741022</v>
       </c>
       <c r="R12">
-        <v>2612.440399678725</v>
+        <v>121.782336636692</v>
       </c>
       <c r="S12">
-        <v>0.002747591178437122</v>
+        <v>0.0001698786728242056</v>
       </c>
       <c r="T12">
-        <v>0.002747591178437122</v>
+        <v>0.0001698786728242055</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>12.69470766666667</v>
+        <v>0.5482786666666667</v>
       </c>
       <c r="H13">
-        <v>38.084123</v>
+        <v>1.644836</v>
       </c>
       <c r="I13">
-        <v>0.08423883950185489</v>
+        <v>0.004244814383540156</v>
       </c>
       <c r="J13">
-        <v>0.08423883950185491</v>
+        <v>0.004244814383540155</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>681.385726</v>
       </c>
       <c r="O13">
-        <v>0.3239890537962366</v>
+        <v>0.3683082836869239</v>
       </c>
       <c r="P13">
-        <v>0.3239890537962366</v>
+        <v>0.368308283686924</v>
       </c>
       <c r="Q13">
-        <v>2883.330866603144</v>
+        <v>124.5297524456596</v>
       </c>
       <c r="R13">
-        <v>25949.9777994283</v>
+        <v>1120.767772010936</v>
       </c>
       <c r="S13">
-        <v>0.027292461903099</v>
+        <v>0.001563400300171243</v>
       </c>
       <c r="T13">
-        <v>0.02729246190309901</v>
+        <v>0.001563400300171243</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>12.69470766666667</v>
+        <v>0.5482786666666667</v>
       </c>
       <c r="H14">
-        <v>38.084123</v>
+        <v>1.644836</v>
       </c>
       <c r="I14">
-        <v>0.08423883950185489</v>
+        <v>0.004244814383540156</v>
       </c>
       <c r="J14">
-        <v>0.08423883950185491</v>
+        <v>0.004244814383540155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>207.8383993333333</v>
+        <v>113.3958433333333</v>
       </c>
       <c r="N14">
-        <v>623.5151980000001</v>
+        <v>340.18753</v>
       </c>
       <c r="O14">
-        <v>0.296472455056379</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="P14">
-        <v>0.2964724550563789</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="Q14">
-        <v>2638.447721444595</v>
+        <v>62.17252178834222</v>
       </c>
       <c r="R14">
-        <v>23746.02949300136</v>
+        <v>559.5526960950799</v>
       </c>
       <c r="S14">
-        <v>0.0249744955582152</v>
+        <v>0.0007805406926245381</v>
       </c>
       <c r="T14">
-        <v>0.0249744955582152</v>
+        <v>0.0007805406926245378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>12.69470766666667</v>
+        <v>0.5482786666666667</v>
       </c>
       <c r="H15">
-        <v>38.084123</v>
+        <v>1.644836</v>
       </c>
       <c r="I15">
-        <v>0.08423883950185489</v>
+        <v>0.004244814383540156</v>
       </c>
       <c r="J15">
-        <v>0.08423883950185491</v>
+        <v>0.004244814383540155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>97.73455433333334</v>
+        <v>95.29374566666667</v>
       </c>
       <c r="N15">
-        <v>293.203663</v>
+        <v>285.881237</v>
       </c>
       <c r="O15">
-        <v>0.139414099415638</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="P15">
-        <v>0.1394140994156379</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="Q15">
-        <v>1240.711596193617</v>
+        <v>52.24752781579244</v>
       </c>
       <c r="R15">
-        <v>11166.40436574255</v>
+        <v>470.227750342132</v>
       </c>
       <c r="S15">
-        <v>0.01174408194496957</v>
+        <v>0.0006559380314038546</v>
       </c>
       <c r="T15">
-        <v>0.01174408194496957</v>
+        <v>0.0006559380314038545</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>12.69470766666667</v>
+        <v>0.5482786666666667</v>
       </c>
       <c r="H16">
-        <v>38.084123</v>
+        <v>1.644836</v>
       </c>
       <c r="I16">
-        <v>0.08423883950185489</v>
+        <v>0.004244814383540156</v>
       </c>
       <c r="J16">
-        <v>0.08423883950185491</v>
+        <v>0.004244814383540155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.4707516666666</v>
+        <v>156.1827086666667</v>
       </c>
       <c r="N16">
-        <v>436.412255</v>
+        <v>468.548126</v>
       </c>
       <c r="O16">
-        <v>0.2075077128377238</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="P16">
-        <v>0.2075077128377237</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="Q16">
-        <v>1846.708666458596</v>
+        <v>85.63164726414846</v>
       </c>
       <c r="R16">
-        <v>16620.37799812736</v>
+        <v>770.684825377336</v>
       </c>
       <c r="S16">
-        <v>0.017480208917134</v>
+        <v>0.001075056686516315</v>
       </c>
       <c r="T16">
-        <v>0.01748020891713401</v>
+        <v>0.001075056686516314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.24264533333333</v>
+        <v>22.473866</v>
       </c>
       <c r="H17">
-        <v>66.727936</v>
+        <v>67.421598</v>
       </c>
       <c r="I17">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="J17">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.865525</v>
+        <v>24.67973233333333</v>
       </c>
       <c r="N17">
-        <v>68.596575</v>
+        <v>74.039197</v>
       </c>
       <c r="O17">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="P17">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="Q17">
-        <v>508.5897629354667</v>
+        <v>554.6489973752007</v>
       </c>
       <c r="R17">
-        <v>4577.3078664192</v>
+        <v>4991.840976376806</v>
       </c>
       <c r="S17">
-        <v>0.004814108186472269</v>
+        <v>0.006963303081843487</v>
       </c>
       <c r="T17">
-        <v>0.004814108186472271</v>
+        <v>0.006963303081843486</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>22.24264533333333</v>
+        <v>22.473866</v>
       </c>
       <c r="H18">
-        <v>66.727936</v>
+        <v>67.421598</v>
       </c>
       <c r="I18">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="J18">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>681.385726</v>
       </c>
       <c r="O18">
-        <v>0.3239890537962366</v>
+        <v>0.3683082836869239</v>
       </c>
       <c r="P18">
-        <v>0.3239890537962366</v>
+        <v>0.368308283686924</v>
       </c>
       <c r="Q18">
-        <v>5051.940346204615</v>
+        <v>5104.457166812239</v>
       </c>
       <c r="R18">
-        <v>45467.46311584154</v>
+        <v>45940.11450131015</v>
       </c>
       <c r="S18">
-        <v>0.0478196557434821</v>
+        <v>0.06408356003347741</v>
       </c>
       <c r="T18">
-        <v>0.04781965574348211</v>
+        <v>0.06408356003347741</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.24264533333333</v>
+        <v>22.473866</v>
       </c>
       <c r="H19">
-        <v>66.727936</v>
+        <v>67.421598</v>
       </c>
       <c r="I19">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="J19">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>207.8383993333333</v>
+        <v>113.3958433333333</v>
       </c>
       <c r="N19">
-        <v>623.5151980000001</v>
+        <v>340.18753</v>
       </c>
       <c r="O19">
-        <v>0.296472455056379</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="P19">
-        <v>0.2964724550563789</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="Q19">
-        <v>4622.875803019037</v>
+        <v>2548.442988030327</v>
       </c>
       <c r="R19">
-        <v>41605.88222717133</v>
+        <v>22935.98689227294</v>
       </c>
       <c r="S19">
-        <v>0.04375830162193489</v>
+        <v>0.03199425401728389</v>
       </c>
       <c r="T19">
-        <v>0.0437583016219349</v>
+        <v>0.03199425401728388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.24264533333333</v>
+        <v>22.473866</v>
       </c>
       <c r="H20">
-        <v>66.727936</v>
+        <v>67.421598</v>
       </c>
       <c r="I20">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="J20">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.73455433333334</v>
+        <v>95.29374566666667</v>
       </c>
       <c r="N20">
-        <v>293.203663</v>
+        <v>285.881237</v>
       </c>
       <c r="O20">
-        <v>0.139414099415638</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="P20">
-        <v>0.1394140994156379</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="Q20">
-        <v>2173.875028847729</v>
+        <v>2141.618870750748</v>
       </c>
       <c r="R20">
-        <v>19564.87525962957</v>
+        <v>19274.56983675673</v>
       </c>
       <c r="S20">
-        <v>0.02057703543292003</v>
+        <v>0.02688680832996241</v>
       </c>
       <c r="T20">
-        <v>0.02057703543292004</v>
+        <v>0.02688680832996241</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.24264533333333</v>
+        <v>22.473866</v>
       </c>
       <c r="H21">
-        <v>66.727936</v>
+        <v>67.421598</v>
       </c>
       <c r="I21">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="J21">
-        <v>0.1475965165587257</v>
+        <v>0.173994348951301</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.4707516666666</v>
+        <v>156.1827086666667</v>
       </c>
       <c r="N21">
-        <v>436.412255</v>
+        <v>468.548126</v>
       </c>
       <c r="O21">
-        <v>0.2075077128377238</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="P21">
-        <v>0.2075077128377237</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="Q21">
-        <v>3235.654335695075</v>
+        <v>3510.029266091706</v>
       </c>
       <c r="R21">
-        <v>29120.88902125568</v>
+        <v>31590.26339482535</v>
       </c>
       <c r="S21">
-        <v>0.03062741557391638</v>
+        <v>0.04406642348873382</v>
       </c>
       <c r="T21">
-        <v>0.03062741557391639</v>
+        <v>0.04406642348873381</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.985757666666666</v>
+        <v>1.234987666666667</v>
       </c>
       <c r="H22">
-        <v>29.957273</v>
+        <v>3.704963</v>
       </c>
       <c r="I22">
-        <v>0.06626293881469322</v>
+        <v>0.009561366745915147</v>
       </c>
       <c r="J22">
-        <v>0.06626293881469324</v>
+        <v>0.009561366745915146</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.865525</v>
+        <v>24.67973233333333</v>
       </c>
       <c r="N22">
-        <v>68.596575</v>
+        <v>74.039197</v>
       </c>
       <c r="O22">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="P22">
-        <v>0.03261667889402277</v>
+        <v>0.04002028297937672</v>
       </c>
       <c r="Q22">
-        <v>228.3295915711084</v>
+        <v>30.47916504830123</v>
       </c>
       <c r="R22">
-        <v>2054.966324139975</v>
+        <v>274.312485434711</v>
       </c>
       <c r="S22">
-        <v>0.002161276997893126</v>
+        <v>0.0003826486028411266</v>
       </c>
       <c r="T22">
-        <v>0.002161276997893127</v>
+        <v>0.0003826486028411265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.985757666666666</v>
+        <v>1.234987666666667</v>
       </c>
       <c r="H23">
-        <v>29.957273</v>
+        <v>3.704963</v>
       </c>
       <c r="I23">
-        <v>0.06626293881469322</v>
+        <v>0.009561366745915147</v>
       </c>
       <c r="J23">
-        <v>0.06626293881469324</v>
+        <v>0.009561366745915146</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>681.385726</v>
       </c>
       <c r="O23">
-        <v>0.3239890537962366</v>
+        <v>0.3683082836869239</v>
       </c>
       <c r="P23">
-        <v>0.3239890537962366</v>
+        <v>0.368308283686924</v>
       </c>
       <c r="Q23">
-        <v>2268.050912453911</v>
+        <v>280.5009892842376</v>
       </c>
       <c r="R23">
-        <v>20412.4582120852</v>
+        <v>2524.508903558138</v>
       </c>
       <c r="S23">
-        <v>0.02146846684833038</v>
+        <v>0.003521530575889237</v>
       </c>
       <c r="T23">
-        <v>0.02146846684833038</v>
+        <v>0.003521530575889237</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.985757666666666</v>
+        <v>1.234987666666667</v>
       </c>
       <c r="H24">
-        <v>29.957273</v>
+        <v>3.704963</v>
       </c>
       <c r="I24">
-        <v>0.06626293881469322</v>
+        <v>0.009561366745915147</v>
       </c>
       <c r="J24">
-        <v>0.06626293881469324</v>
+        <v>0.009561366745915146</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>207.8383993333333</v>
+        <v>113.3958433333333</v>
       </c>
       <c r="N24">
-        <v>623.5151980000001</v>
+        <v>340.18753</v>
       </c>
       <c r="O24">
-        <v>0.296472455056379</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="P24">
-        <v>0.2964724550563789</v>
+        <v>0.1838809950444925</v>
       </c>
       <c r="Q24">
-        <v>2075.423889570562</v>
+        <v>140.0424679679322</v>
       </c>
       <c r="R24">
-        <v>18678.81500613506</v>
+        <v>1260.38221171139</v>
       </c>
       <c r="S24">
-        <v>0.01964513614964273</v>
+        <v>0.001758153631224199</v>
       </c>
       <c r="T24">
-        <v>0.01964513614964273</v>
+        <v>0.001758153631224199</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.985757666666666</v>
+        <v>1.234987666666667</v>
       </c>
       <c r="H25">
-        <v>29.957273</v>
+        <v>3.704963</v>
       </c>
       <c r="I25">
-        <v>0.06626293881469322</v>
+        <v>0.009561366745915147</v>
       </c>
       <c r="J25">
-        <v>0.06626293881469324</v>
+        <v>0.009561366745915146</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>97.73455433333334</v>
+        <v>95.29374566666667</v>
       </c>
       <c r="N25">
-        <v>293.203663</v>
+        <v>285.881237</v>
       </c>
       <c r="O25">
-        <v>0.139414099415638</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="P25">
-        <v>0.1394140994156379</v>
+        <v>0.1545269055691442</v>
       </c>
       <c r="Q25">
-        <v>975.9535752323332</v>
+        <v>117.6866006088035</v>
       </c>
       <c r="R25">
-        <v>8783.582177090999</v>
+        <v>1059.179405479231</v>
       </c>
       <c r="S25">
-        <v>0.009237987939483976</v>
+        <v>0.001477488416257985</v>
       </c>
       <c r="T25">
-        <v>0.009237987939483976</v>
+        <v>0.001477488416257985</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.985757666666666</v>
+        <v>1.234987666666667</v>
       </c>
       <c r="H26">
-        <v>29.957273</v>
+        <v>3.704963</v>
       </c>
       <c r="I26">
-        <v>0.06626293881469322</v>
+        <v>0.009561366745915147</v>
       </c>
       <c r="J26">
-        <v>0.06626293881469324</v>
+        <v>0.009561366745915146</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>145.4707516666666</v>
+        <v>156.1827086666667</v>
       </c>
       <c r="N26">
-        <v>436.412255</v>
+        <v>468.548126</v>
       </c>
       <c r="O26">
-        <v>0.2075077128377238</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="P26">
-        <v>0.2075077128377237</v>
+        <v>0.2532635327200626</v>
       </c>
       <c r="Q26">
-        <v>1452.635673731179</v>
+        <v>192.8837189499265</v>
       </c>
       <c r="R26">
-        <v>13073.72106358061</v>
+        <v>1735.953470549338</v>
       </c>
       <c r="S26">
-        <v>0.01375007087934302</v>
+        <v>0.002421545519702599</v>
       </c>
       <c r="T26">
-        <v>0.01375007087934302</v>
+        <v>0.002421545519702599</v>
       </c>
     </row>
   </sheetData>
